--- a/dvd.xlsx
+++ b/dvd.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\upc_availability_ebay\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6434A-E395-4E7C-B4A2-445505745C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="13395" windowHeight="6225"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,6 +136,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -177,7 +186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,9 +219,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,28 +463,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="19" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="18.88671875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="18.88671875" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -455,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -469,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -486,7 +529,7 @@
         <v>786936197372</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -500,10 +543,10 @@
         <v>779836166395</v>
       </c>
       <c r="F4" s="6">
-        <v>25192245626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>24543407249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -520,7 +563,7 @@
         <v>43396060500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -537,7 +580,7 @@
         <v>65935203711</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -554,7 +597,7 @@
         <v>24543665892</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -571,7 +614,7 @@
         <v>24543028963</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -588,7 +631,7 @@
         <v>43396185746</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -596,7 +639,7 @@
         <v>774212000324</v>
       </c>
       <c r="C10" s="6">
-        <v>25192099915</v>
+        <v>678149059120</v>
       </c>
       <c r="E10" s="6">
         <v>25192632426</v>
@@ -605,7 +648,7 @@
         <v>26359336522</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -622,7 +665,7 @@
         <v>24543156079</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -633,13 +676,13 @@
         <v>25192879227</v>
       </c>
       <c r="E12" s="6">
-        <v>794043135330</v>
+        <v>678149059120</v>
       </c>
       <c r="F12" s="6">
         <v>43396080300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -656,7 +699,7 @@
         <v>812034011774</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -673,7 +716,7 @@
         <v>786936242164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -687,10 +730,10 @@
         <v>883929107742</v>
       </c>
       <c r="F15" s="6">
-        <v>43396142374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>678149059120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -707,7 +750,7 @@
         <v>12569818378</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -721,10 +764,10 @@
         <v>85391108627</v>
       </c>
       <c r="F17" s="6">
-        <v>786936239492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>794043489426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -738,7 +781,7 @@
         <v>43396067660</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -752,7 +795,7 @@
         <v>43396036635</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -766,7 +809,7 @@
         <v>32429308900</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -780,7 +823,7 @@
         <v>43396154193</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -794,7 +837,7 @@
         <v>27616625991</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -805,10 +848,10 @@
         <v>25192671920</v>
       </c>
       <c r="E23" s="6">
-        <v>85392864829</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85391198307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -822,7 +865,7 @@
         <v>796019799720</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -836,7 +879,7 @@
         <v>96009999094</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -850,7 +893,7 @@
         <v>24543101802</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -871,24 +914,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
